--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.785374216</v>
+        <v>509053.5413884827</v>
       </c>
     </row>
     <row r="7">
@@ -656,70 +658,70 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>117.5784330035868</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>37.18582309281555</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,10 +1751,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,73 +1846,73 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E17" t="n">
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>210.269156754254</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>70.52904586619735</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>82.96396779500064</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,10 +2405,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>1.944519418634081</v>
       </c>
       <c r="F24" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.285385643442</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2567,13 +2569,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>194.5443197363986</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>70.34400780127524</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>12.99915651097357</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2931,10 +2933,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,55 +3043,55 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>154.8359655669563</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>13.20847578435539</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3266,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>126.358590200387</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>123.9827370291321</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>92.69432813215352</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>48.84334282653597</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3977,13 +3979,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>200.3360962888296</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4062,13 +4064,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.837102735344149</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>342.668582052591</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>926.4957180431458</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>718.6442178376129</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y6" t="n">
-        <v>510.883919072659</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4743,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4939,28 +4941,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D11" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C11" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D11" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E12" t="n">
         <v>19.28114311021272</v>
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="13">
@@ -5215,16 +5217,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5360,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>678.3417187247995</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>182.1001465464452</v>
       </c>
     </row>
     <row r="16">
@@ -5452,22 +5454,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
         <v>19.28114311021272</v>
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5622,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>751.6640678800766</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="19">
@@ -5689,28 +5691,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>719.3983504903987</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>511.6380517254448</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5947,10 +5949,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>266.0282188019862</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>22.57944215788615</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>22.57944215788615</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>22.57944215788615</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y23" t="n">
-        <v>752.9257720901863</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.2549444941228</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C24" t="n">
-        <v>346.8019152129958</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D24" t="n">
-        <v>197.8675055517446</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E24" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>689.4702815141908</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>689.4702815141908</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>689.4702815141908</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6208,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>594.130397086155</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>386.2788968806221</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6488,16 +6490,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
         <v>506.1786963984129</v>
@@ -6506,7 +6508,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.4496078827955</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4496078827955</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D30" t="n">
-        <v>145.4496078827955</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4496078827955</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.4496078827955</v>
+        <v>182.1001465464452</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.8480801015824</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C33" t="n">
-        <v>338.3950508204554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>338.3950508204554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>179.1575958149999</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>32.62303784188484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6788,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>962.2293816994886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>962.2293816994886</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6996,10 +6998,10 @@
         <v>795.8418184905681</v>
       </c>
       <c r="D36" t="n">
-        <v>646.9074088293169</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>487.6699538238614</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
         <v>362.4348659156472</v>
@@ -7020,7 +7022,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
         <v>486.8488635328713</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7172,7 +7174,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N39" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N39" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="40">
@@ -7388,19 +7390,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>567.6182002269572</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C42" t="n">
-        <v>473.9875657500345</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>467.2523720189268</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>787.9255531013317</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C45" t="n">
-        <v>613.4725238202047</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D45" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7764,13 +7766,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y45" t="n">
-        <v>956.1408901213997</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8781,7 +8783,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10668,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10905,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>184.6294155606472</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,22 +22594,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.2668633158006</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>40.06664745181419</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>214.5091600681041</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23027,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -23042,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23179,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D11" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23343,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23400,7 +23402,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>5.342370247997195</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23710,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23862,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>22.53143039517124</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>135.2439393372801</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24291,10 +24293,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>155.7005610367669</v>
       </c>
       <c r="F24" t="n">
-        <v>125.9137940316683</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.397655977241</v>
+        <v>352.8735455476468</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24455,13 +24457,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>57.15066342452099</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>138.6760617849701</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>159.7093424773422</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>32.73830033054396</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24819,10 +24821,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>17.87253342135941</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>124.1350413788552</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>98.39612368925759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25117,13 +25119,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,10 +25171,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25236,13 +25238,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>21.08647536425178</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>21.08647536425181</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>143.656081349691</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>86.90622188150782</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.4685256062839</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25673,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>80.01417085616222</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>108.801737628865</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25865,13 +25867,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>164.936795482178</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25950,13 +25952,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y45" t="n">
-        <v>197.8455930419602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481925.4952859359</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="14">
@@ -26317,7 +26319,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26338,13 +26340,13 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26353,7 +26355,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
         <v>8547.111069342402</v>
@@ -26436,13 +26438,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928579</v>
+        <v>-29593.37421928576</v>
       </c>
       <c r="C6" t="n">
-        <v>51176.05731226198</v>
+        <v>51176.05731226196</v>
       </c>
       <c r="D6" t="n">
-        <v>51176.05731226198</v>
+        <v>51176.05731226199</v>
       </c>
       <c r="E6" t="n">
         <v>84803.65731226197</v>
       </c>
       <c r="F6" t="n">
+        <v>84803.65731226193</v>
+      </c>
+      <c r="G6" t="n">
+        <v>84803.65731226193</v>
+      </c>
+      <c r="H6" t="n">
         <v>84803.65731226197</v>
       </c>
-      <c r="G6" t="n">
-        <v>84803.65731226196</v>
-      </c>
-      <c r="H6" t="n">
-        <v>84803.65731226196</v>
-      </c>
       <c r="I6" t="n">
-        <v>84803.65731226196</v>
+        <v>84803.65731226197</v>
       </c>
       <c r="J6" t="n">
         <v>21743.71471315574</v>
       </c>
       <c r="K6" t="n">
+        <v>84803.65731226194</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84803.65731226197</v>
+      </c>
+      <c r="M6" t="n">
         <v>84803.65731226199</v>
       </c>
-      <c r="L6" t="n">
-        <v>84803.65731226196</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>84803.65731226197</v>
       </c>
-      <c r="N6" t="n">
-        <v>84803.65731226196</v>
-      </c>
       <c r="O6" t="n">
+        <v>84803.65731226193</v>
+      </c>
+      <c r="P6" t="n">
         <v>84803.65731226197</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84803.65731226199</v>
       </c>
     </row>
   </sheetData>
@@ -34708,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35503,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37154,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37625,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
